--- a/Excel/镇魂街/章节关卡/派遣巡逻.xlsx
+++ b/Excel/镇魂街/章节关卡/派遣巡逻.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="230">
   <si>
     <t>标识</t>
   </si>
@@ -138,193 +138,6 @@
   </si>
   <si>
     <t>显示的额外奖励</t>
-  </si>
-  <si>
-    <t>1401001#14#1|1602001#16#1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1401001#14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|1602001#16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1401001#14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|1602001#16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1401001#14#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|1602001#16#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1401001#14#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|1602001#16#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
   </si>
   <si>
     <t>Time1</t>
@@ -423,12 +236,6 @@
     <t>普通关1-4</t>
   </si>
   <si>
-    <t>普通关1-5</t>
-  </si>
-  <si>
-    <t>普通关1-6</t>
-  </si>
-  <si>
     <t>普通关2-1</t>
   </si>
   <si>
@@ -441,21 +248,6 @@
     <t>普通关2-4</t>
   </si>
   <si>
-    <t>普通关2-5</t>
-  </si>
-  <si>
-    <t>普通关2-6</t>
-  </si>
-  <si>
-    <t>普通关2-7</t>
-  </si>
-  <si>
-    <t>普通关2-8</t>
-  </si>
-  <si>
-    <t>普通关2-9</t>
-  </si>
-  <si>
     <t>普通关3-1</t>
   </si>
   <si>
@@ -480,27 +272,6 @@
     <t>普通关3-8</t>
   </si>
   <si>
-    <t>普通关3-9</t>
-  </si>
-  <si>
-    <t>普通关3-10</t>
-  </si>
-  <si>
-    <t>普通关3-11</t>
-  </si>
-  <si>
-    <t>普通关3-12</t>
-  </si>
-  <si>
-    <t>普通关3-13</t>
-  </si>
-  <si>
-    <t>普通关3-14</t>
-  </si>
-  <si>
-    <t>普通关3-15</t>
-  </si>
-  <si>
     <t>普通关4-1</t>
   </si>
   <si>
@@ -531,21 +302,6 @@
     <t>普通关4-10</t>
   </si>
   <si>
-    <t>普通关4-11</t>
-  </si>
-  <si>
-    <t>普通关4-12</t>
-  </si>
-  <si>
-    <t>普通关4-13</t>
-  </si>
-  <si>
-    <t>普通关4-14</t>
-  </si>
-  <si>
-    <t>普通关4-15</t>
-  </si>
-  <si>
     <t>普通关5-1</t>
   </si>
   <si>
@@ -576,21 +332,6 @@
     <t>普通关5-10</t>
   </si>
   <si>
-    <t>普通关5-11</t>
-  </si>
-  <si>
-    <t>普通关5-12</t>
-  </si>
-  <si>
-    <t>普通关5-13</t>
-  </si>
-  <si>
-    <t>普通关5-14</t>
-  </si>
-  <si>
-    <t>普通关5-15</t>
-  </si>
-  <si>
     <t>普通关6-1</t>
   </si>
   <si>
@@ -621,21 +362,6 @@
     <t>普通关6-10</t>
   </si>
   <si>
-    <t>普通关6-11</t>
-  </si>
-  <si>
-    <t>普通关6-12</t>
-  </si>
-  <si>
-    <t>普通关6-13</t>
-  </si>
-  <si>
-    <t>普通关6-14</t>
-  </si>
-  <si>
-    <t>普通关6-15</t>
-  </si>
-  <si>
     <t>普通关7-1</t>
   </si>
   <si>
@@ -666,21 +392,6 @@
     <t>普通关7-10</t>
   </si>
   <si>
-    <t>普通关7-11</t>
-  </si>
-  <si>
-    <t>普通关7-12</t>
-  </si>
-  <si>
-    <t>普通关7-13</t>
-  </si>
-  <si>
-    <t>普通关7-14</t>
-  </si>
-  <si>
-    <t>普通关7-15</t>
-  </si>
-  <si>
     <t>普通关8-1</t>
   </si>
   <si>
@@ -717,15 +428,6 @@
     <t>普通关8-12</t>
   </si>
   <si>
-    <t>普通关8-13</t>
-  </si>
-  <si>
-    <t>普通关8-14</t>
-  </si>
-  <si>
-    <t>普通关8-15</t>
-  </si>
-  <si>
     <t>普通关9-1</t>
   </si>
   <si>
@@ -762,13 +464,262 @@
     <t>普通关9-12</t>
   </si>
   <si>
-    <t>普通关9-13</t>
-  </si>
-  <si>
-    <t>普通关9-14</t>
-  </si>
-  <si>
-    <t>普通关9-15</t>
+    <t>1401002#56#14|1401003#27#14</t>
+  </si>
+  <si>
+    <t>1401002#56#14|1401004#27#14</t>
+  </si>
+  <si>
+    <t>1401002#100#14|1401003#50#14</t>
+  </si>
+  <si>
+    <t>1401002#100#14|1401004#50#14</t>
+  </si>
+  <si>
+    <t>1401002#84#14|1401003#33#14</t>
+  </si>
+  <si>
+    <t>1401002#84#14|1401004#33#14</t>
+  </si>
+  <si>
+    <t>1401002#150#14|1401003#60#14</t>
+  </si>
+  <si>
+    <t>1401002#150#14|1401004#60#14</t>
+  </si>
+  <si>
+    <t>1401002#112#14|1401003#39#14</t>
+  </si>
+  <si>
+    <t>1401002#112#14|1401004#39#14</t>
+  </si>
+  <si>
+    <t>1401002#200#14|1401003#70#14</t>
+  </si>
+  <si>
+    <t>1401002#200#14|1401004#70#14</t>
+  </si>
+  <si>
+    <t>1401002#140#14|1401003#45#14</t>
+  </si>
+  <si>
+    <t>1401002#140#14|1401004#45#14</t>
+  </si>
+  <si>
+    <t>1401002#250#14|1401004#80#14</t>
+  </si>
+  <si>
+    <t>1401002#250#14|1401003#80#14</t>
+  </si>
+  <si>
+    <t>1401002#168#14|1401003#50#14</t>
+  </si>
+  <si>
+    <t>1401002#168#14|1401004#50#14</t>
+  </si>
+  <si>
+    <t>1401002#300#14|1401004#90#14</t>
+  </si>
+  <si>
+    <t>1401002#300#14|1401003#90#14</t>
+  </si>
+  <si>
+    <t>1401002#196#14|1401003#56#14</t>
+  </si>
+  <si>
+    <t>1401002#196#14|1401004#56#14</t>
+  </si>
+  <si>
+    <t>1401002#350#14|1401004#100#14</t>
+  </si>
+  <si>
+    <t>1401002#350#14|1401003#100#14</t>
+  </si>
+  <si>
+    <t>1401002#225#14|1401003#61#14</t>
+  </si>
+  <si>
+    <t>1401002#225#14|1401004#61#14</t>
+  </si>
+  <si>
+    <t>1401002#400#14|1401004#110#14</t>
+  </si>
+  <si>
+    <t>1401002#400#14|1401003#110#14</t>
+  </si>
+  <si>
+    <t>1401002#252#14|1401003#67#14</t>
+  </si>
+  <si>
+    <t>1401002#252#14|1401004#67#14</t>
+  </si>
+  <si>
+    <t>1401002#450#14|1401003#120#14</t>
+  </si>
+  <si>
+    <t>1401002#450#14|1401004#120#14</t>
+  </si>
+  <si>
+    <t>1401002#281#14|1401003#67#14</t>
+  </si>
+  <si>
+    <t>1401002#281#14|1401004#67#14</t>
+  </si>
+  <si>
+    <t>1401002#500#14|1401003#120#14</t>
+  </si>
+  <si>
+    <t>1401002#500#14|1401004#120#14</t>
+  </si>
+  <si>
+    <t>1603001#5#16</t>
+  </si>
+  <si>
+    <t>1603004#5#16</t>
+  </si>
+  <si>
+    <t>1603001#10#16</t>
+  </si>
+  <si>
+    <t>1603004#10#16</t>
+  </si>
+  <si>
+    <t>1603001#11#16</t>
+  </si>
+  <si>
+    <t>1603004#11#16</t>
+  </si>
+  <si>
+    <t>1603001#20#16</t>
+  </si>
+  <si>
+    <t>1603004#20#16</t>
+  </si>
+  <si>
+    <t>1603002#2#16|1603007#1#16</t>
+  </si>
+  <si>
+    <t>1603005#2#16|1603008#1#16</t>
+  </si>
+  <si>
+    <t>1603002#2#16|1603009#1#16</t>
+  </si>
+  <si>
+    <t>1603005#2#16|1603010#1#16</t>
+  </si>
+  <si>
+    <t>1603002#2#16|1603011#1#16</t>
+  </si>
+  <si>
+    <t>1603005#5#16|1603007#1#16</t>
+  </si>
+  <si>
+    <t>1603002#5#16|1603008#1#16</t>
+  </si>
+  <si>
+    <t>1603005#5#16|1603009#1#16</t>
+  </si>
+  <si>
+    <t>1603002#5#16|1603010#1#16</t>
+  </si>
+  <si>
+    <t>1603005#5#16|1603011#1#16</t>
+  </si>
+  <si>
+    <t>1603002#5#16|1603007#1#16</t>
+  </si>
+  <si>
+    <t>1603005#5#16|1603008#1#16</t>
+  </si>
+  <si>
+    <t>1603002#5#16|1603009#1#16</t>
+  </si>
+  <si>
+    <t>1603005#5#16|1603010#1#16</t>
+  </si>
+  <si>
+    <t>1603002#5#16|1603011#1#16</t>
+  </si>
+  <si>
+    <t>1603005#10#16|1603007#1#16</t>
+  </si>
+  <si>
+    <t>1603002#10#16|1603008#1#16</t>
+  </si>
+  <si>
+    <t>1603005#10#16|1603009#1#16</t>
+  </si>
+  <si>
+    <t>1603002#10#16|1603010#1#16</t>
+  </si>
+  <si>
+    <t>1603005#10#16|1603011#1#16</t>
+  </si>
+  <si>
+    <t>1603003#1#16|1603012#1#16</t>
+  </si>
+  <si>
+    <t>1603006#1#16|1603013#1#16</t>
+  </si>
+  <si>
+    <t>1603003#1#16|1603014#1#16</t>
+  </si>
+  <si>
+    <t>1603006#1#16|1603015#1#16</t>
+  </si>
+  <si>
+    <t>1603003#1#16|1603016#1#16</t>
+  </si>
+  <si>
+    <t>1603006#2#16|1603012#1#16</t>
+  </si>
+  <si>
+    <t>1603003#3#16|1603013#1#16</t>
+  </si>
+  <si>
+    <t>1603006#3#16|1603014#1#16</t>
+  </si>
+  <si>
+    <t>1603003#3#16|1603015#1#16</t>
+  </si>
+  <si>
+    <t>1603006#3#16|1603016#1#16</t>
+  </si>
+  <si>
+    <t>1603003#2#16|1603012#1#16|1603022#1#16</t>
+  </si>
+  <si>
+    <t>1603006#2#16|1603013#1#16|1603018#1#16</t>
+  </si>
+  <si>
+    <t>1603003#2#16|1603014#1#16|1603019#1#16</t>
+  </si>
+  <si>
+    <t>1603006#2#16|1603015#1#16|1603020#1#16</t>
+  </si>
+  <si>
+    <t>1603003#2#16|1603016#1#16|1603021#1#16</t>
+  </si>
+  <si>
+    <t>1603006#2#16|1603016#1#16|1603017#1#16</t>
+  </si>
+  <si>
+    <t>1603003#5#16|1603012#1#16|1603022#1#16</t>
+  </si>
+  <si>
+    <t>1603006#5#16|1603013#1#16|1603018#1#16</t>
+  </si>
+  <si>
+    <t>1603003#5#16|1603014#1#16|1603019#1#16</t>
+  </si>
+  <si>
+    <t>1603006#5#16|1603015#1#16|1603020#1#16</t>
+  </si>
+  <si>
+    <t>1603003#5#16|1603016#1#16|1603021#1#16</t>
+  </si>
+  <si>
+    <t>1603006#5#16|1603016#1#16|1603017#1#16</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1237,7 @@
         <v>101</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D8" s="5">
         <v>1110101</v>
@@ -1298,7 +1249,7 @@
         <v>102</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D9" s="5">
         <v>1110201</v>
@@ -1310,7 +1261,7 @@
         <v>103</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D10" s="5">
         <v>1110301</v>
@@ -1322,7 +1273,7 @@
         <v>104</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D11" s="5">
         <v>1110401</v>
@@ -1334,7 +1285,7 @@
         <v>105</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D12" s="5">
         <v>1110501</v>
@@ -1346,7 +1297,7 @@
         <v>106</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D13" s="5">
         <v>1110601</v>
@@ -1358,7 +1309,7 @@
         <v>107</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D14" s="5">
         <v>1110701</v>
@@ -1370,7 +1321,7 @@
         <v>108</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D15" s="5">
         <v>1110801</v>
@@ -1382,7 +1333,7 @@
         <v>109</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D16" s="5">
         <v>1110901</v>
@@ -1396,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O127"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N76" sqref="N76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1414,7 +1365,9 @@
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="11.625" customWidth="1"/>
-    <col min="13" max="15" width="28.25" customWidth="1"/>
+    <col min="13" max="13" width="33.375" customWidth="1"/>
+    <col min="14" max="14" width="28.25" customWidth="1"/>
+    <col min="15" max="15" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
@@ -1694,7 +1647,7 @@
         <v>1110101</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D8" s="5">
         <v>101</v>
@@ -1703,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="5">
-        <v>1120101</v>
+        <v>1110103</v>
       </c>
       <c r="G8" s="5">
         <v>1</v>
@@ -1715,23 +1668,17 @@
         <v>500</v>
       </c>
       <c r="J8" s="5">
-        <v>1000</v>
-      </c>
-      <c r="K8" s="5">
-        <v>1012</v>
-      </c>
+        <v>6001</v>
+      </c>
+      <c r="K8" s="5"/>
       <c r="L8" s="5">
-        <v>1016</v>
+        <v>7001</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
@@ -1739,7 +1686,7 @@
         <v>1110102</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D9" s="5">
         <v>101</v>
@@ -1748,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="5">
-        <v>1120102</v>
+        <v>1110106</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
@@ -1760,23 +1707,17 @@
         <v>500</v>
       </c>
       <c r="J9" s="5">
-        <v>1000</v>
-      </c>
-      <c r="K9" s="5">
-        <v>1012</v>
-      </c>
+        <v>6002</v>
+      </c>
+      <c r="K9" s="5"/>
       <c r="L9" s="5">
-        <v>1016</v>
+        <v>7002</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
@@ -1784,13 +1725,13 @@
         <v>1110103</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D10" s="5">
         <v>101</v>
       </c>
       <c r="E10" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="5">
         <v>1120103</v>
@@ -1805,23 +1746,17 @@
         <v>500</v>
       </c>
       <c r="J10" s="5">
-        <v>1000</v>
-      </c>
-      <c r="K10" s="5">
-        <v>1012</v>
-      </c>
+        <v>6003</v>
+      </c>
+      <c r="K10" s="5"/>
       <c r="L10" s="5">
-        <v>1016</v>
+        <v>7003</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
@@ -1829,16 +1764,16 @@
         <v>1110104</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D11" s="5">
         <v>101</v>
       </c>
       <c r="E11" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="5">
-        <v>1120104</v>
+        <v>1120106</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -1850,40 +1785,34 @@
         <v>500</v>
       </c>
       <c r="J11" s="5">
-        <v>1000</v>
-      </c>
-      <c r="K11" s="5">
-        <v>1012</v>
-      </c>
+        <v>6004</v>
+      </c>
+      <c r="K11" s="5"/>
       <c r="L11" s="5">
-        <v>1016</v>
+        <v>7004</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="5">
-        <v>1110105</v>
+        <v>1110201</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D12" s="5">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
       </c>
       <c r="F12" s="5">
-        <v>1120105</v>
+        <v>1110203</v>
       </c>
       <c r="G12" s="5">
         <v>1</v>
@@ -1895,40 +1824,36 @@
         <v>500</v>
       </c>
       <c r="J12" s="5">
-        <v>1000</v>
-      </c>
-      <c r="K12" s="5">
-        <v>1012</v>
-      </c>
+        <v>6005</v>
+      </c>
+      <c r="K12" s="5"/>
       <c r="L12" s="5">
-        <v>1016</v>
+        <v>7005</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>1110106</v>
+        <v>1110202</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D13" s="5">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
       </c>
       <c r="F13" s="5">
-        <v>1120106</v>
+        <v>1110206</v>
       </c>
       <c r="G13" s="5">
         <v>1</v>
@@ -1940,40 +1865,36 @@
         <v>500</v>
       </c>
       <c r="J13" s="5">
-        <v>1000</v>
-      </c>
-      <c r="K13" s="5">
-        <v>1012</v>
-      </c>
+        <v>6006</v>
+      </c>
+      <c r="K13" s="5"/>
       <c r="L13" s="5">
-        <v>1016</v>
+        <v>7006</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>1110201</v>
+        <v>1110203</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D14" s="5">
         <v>102</v>
       </c>
       <c r="E14" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="5">
-        <v>1120201</v>
+        <v>1120203</v>
       </c>
       <c r="G14" s="5">
         <v>1</v>
@@ -1985,40 +1906,36 @@
         <v>500</v>
       </c>
       <c r="J14" s="5">
-        <v>1000</v>
-      </c>
-      <c r="K14" s="5">
-        <v>1012</v>
-      </c>
+        <v>6007</v>
+      </c>
+      <c r="K14" s="5"/>
       <c r="L14" s="5">
-        <v>1016</v>
+        <v>7007</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>40</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
-        <v>1110202</v>
+        <v>1110204</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D15" s="5">
         <v>102</v>
       </c>
       <c r="E15" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="5">
-        <v>1120202</v>
+        <v>1120206</v>
       </c>
       <c r="G15" s="5">
         <v>1</v>
@@ -2030,40 +1947,36 @@
         <v>500</v>
       </c>
       <c r="J15" s="5">
-        <v>1000</v>
-      </c>
-      <c r="K15" s="5">
-        <v>1012</v>
-      </c>
+        <v>6008</v>
+      </c>
+      <c r="K15" s="5"/>
       <c r="L15" s="5">
-        <v>1016</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>41</v>
+        <v>7008</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="5">
-        <v>1110203</v>
+        <v>1110301</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D16" s="5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
       </c>
       <c r="F16" s="5">
-        <v>1120203</v>
+        <v>1120303</v>
       </c>
       <c r="G16" s="5">
         <v>1</v>
@@ -2075,40 +1988,36 @@
         <v>500</v>
       </c>
       <c r="J16" s="5">
-        <v>1000</v>
-      </c>
-      <c r="K16" s="5">
-        <v>1012</v>
-      </c>
+        <v>6009</v>
+      </c>
+      <c r="K16" s="5"/>
       <c r="L16" s="5">
-        <v>1016</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>42</v>
+        <v>7009</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>1110204</v>
+        <v>1110302</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D17" s="5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
       </c>
       <c r="F17" s="5">
-        <v>1120204</v>
+        <v>1120306</v>
       </c>
       <c r="G17" s="5">
         <v>1</v>
@@ -2119,29 +2028,37 @@
       <c r="I17" s="5">
         <v>500</v>
       </c>
-      <c r="J17" s="5"/>
+      <c r="J17" s="5">
+        <v>6010</v>
+      </c>
       <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="L17" s="5">
+        <v>7010</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="O17" s="5" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="5">
-        <v>1110205</v>
+        <v>1110303</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D18" s="5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
       </c>
       <c r="F18" s="5">
-        <v>1120205</v>
+        <v>1120309</v>
       </c>
       <c r="G18" s="5">
         <v>1</v>
@@ -2152,29 +2069,37 @@
       <c r="I18" s="5">
         <v>500</v>
       </c>
-      <c r="J18" s="5"/>
+      <c r="J18" s="5">
+        <v>6011</v>
+      </c>
       <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="L18" s="5">
+        <v>7011</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
+      <c r="O18" s="5" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>1110206</v>
+        <v>1110304</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D19" s="5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
       </c>
       <c r="F19" s="5">
-        <v>1120206</v>
+        <v>1120312</v>
       </c>
       <c r="G19" s="5">
         <v>1</v>
@@ -2185,29 +2110,37 @@
       <c r="I19" s="5">
         <v>500</v>
       </c>
-      <c r="J19" s="5"/>
+      <c r="J19" s="5">
+        <v>6012</v>
+      </c>
       <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="L19" s="5">
+        <v>7012</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
+      <c r="O19" s="5" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="5">
-        <v>1110207</v>
+        <v>1110305</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D20" s="5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
       </c>
       <c r="F20" s="5">
-        <v>1120207</v>
+        <v>1120303</v>
       </c>
       <c r="G20" s="5">
         <v>1</v>
@@ -2218,29 +2151,37 @@
       <c r="I20" s="5">
         <v>500</v>
       </c>
-      <c r="J20" s="5"/>
+      <c r="J20" s="5">
+        <v>6013</v>
+      </c>
       <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="L20" s="5">
+        <v>7013</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>154</v>
+      </c>
       <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
+      <c r="O20" s="5" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="5">
-        <v>1110208</v>
+        <v>1110306</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D21" s="5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
       </c>
       <c r="F21" s="5">
-        <v>1120208</v>
+        <v>1120306</v>
       </c>
       <c r="G21" s="5">
         <v>1</v>
@@ -2251,29 +2192,37 @@
       <c r="I21" s="5">
         <v>500</v>
       </c>
-      <c r="J21" s="5"/>
+      <c r="J21" s="5">
+        <v>6014</v>
+      </c>
       <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="L21" s="5">
+        <v>7014</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
+      <c r="O21" s="5" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="5">
-        <v>1110209</v>
+        <v>1110307</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D22" s="5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
       </c>
       <c r="F22" s="5">
-        <v>1120209</v>
+        <v>1120309</v>
       </c>
       <c r="G22" s="5">
         <v>1</v>
@@ -2284,20 +2233,28 @@
       <c r="I22" s="5">
         <v>500</v>
       </c>
-      <c r="J22" s="5"/>
+      <c r="J22" s="5">
+        <v>6015</v>
+      </c>
       <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="L22" s="5">
+        <v>7015</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>154</v>
+      </c>
       <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
+      <c r="O22" s="5" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>1110301</v>
+        <v>1110308</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D23" s="5">
         <v>103</v>
@@ -2306,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="5">
-        <v>1120301</v>
+        <v>1120312</v>
       </c>
       <c r="G23" s="5">
         <v>1</v>
@@ -2317,29 +2274,37 @@
       <c r="I23" s="5">
         <v>500</v>
       </c>
-      <c r="J23" s="5"/>
+      <c r="J23" s="5">
+        <v>6016</v>
+      </c>
       <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="L23" s="5">
+        <v>7016</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
+      <c r="O23" s="5" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="5">
-        <v>1110302</v>
+        <v>1110401</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D24" s="5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
       </c>
       <c r="F24" s="5">
-        <v>1120302</v>
+        <v>1110403</v>
       </c>
       <c r="G24" s="5">
         <v>1</v>
@@ -2350,29 +2315,37 @@
       <c r="I24" s="5">
         <v>500</v>
       </c>
-      <c r="J24" s="5"/>
+      <c r="J24" s="5">
+        <v>6017</v>
+      </c>
       <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="L24" s="5">
+        <v>7017</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
+      <c r="O24" s="5" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>1110303</v>
+        <v>1110402</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D25" s="5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
       </c>
       <c r="F25" s="5">
-        <v>1120303</v>
+        <v>1110406</v>
       </c>
       <c r="G25" s="5">
         <v>1</v>
@@ -2383,29 +2356,37 @@
       <c r="I25" s="5">
         <v>500</v>
       </c>
-      <c r="J25" s="5"/>
+      <c r="J25" s="5">
+        <v>6018</v>
+      </c>
       <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+      <c r="L25" s="5">
+        <v>7018</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
+      <c r="O25" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>1110304</v>
+        <v>1110403</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D26" s="5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
       </c>
       <c r="F26" s="5">
-        <v>1120304</v>
+        <v>1110409</v>
       </c>
       <c r="G26" s="5">
         <v>1</v>
@@ -2416,29 +2397,37 @@
       <c r="I26" s="5">
         <v>500</v>
       </c>
-      <c r="J26" s="5"/>
+      <c r="J26" s="5">
+        <v>6019</v>
+      </c>
       <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
+      <c r="L26" s="5">
+        <v>7019</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
+      <c r="O26" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="5">
-        <v>1110305</v>
+        <v>1110404</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D27" s="5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
       </c>
       <c r="F27" s="5">
-        <v>1120305</v>
+        <v>1110412</v>
       </c>
       <c r="G27" s="5">
         <v>1</v>
@@ -2449,29 +2438,37 @@
       <c r="I27" s="5">
         <v>500</v>
       </c>
-      <c r="J27" s="5"/>
+      <c r="J27" s="5">
+        <v>6020</v>
+      </c>
       <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
+      <c r="L27" s="5">
+        <v>7020</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
+      <c r="O27" s="5" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="5">
-        <v>1110306</v>
+        <v>1110405</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D28" s="5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E28" s="5">
         <v>1</v>
       </c>
       <c r="F28" s="5">
-        <v>1120306</v>
+        <v>1110415</v>
       </c>
       <c r="G28" s="5">
         <v>1</v>
@@ -2482,29 +2479,37 @@
       <c r="I28" s="5">
         <v>500</v>
       </c>
-      <c r="J28" s="5"/>
+      <c r="J28" s="5">
+        <v>6021</v>
+      </c>
       <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
+      <c r="L28" s="5">
+        <v>7021</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
+      <c r="O28" s="5" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="5">
-        <v>1110307</v>
+        <v>1110406</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D29" s="5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E29" s="5">
         <v>1</v>
       </c>
       <c r="F29" s="5">
-        <v>1120307</v>
+        <v>1120403</v>
       </c>
       <c r="G29" s="5">
         <v>1</v>
@@ -2515,29 +2520,37 @@
       <c r="I29" s="5">
         <v>500</v>
       </c>
-      <c r="J29" s="5"/>
+      <c r="J29" s="5">
+        <v>6022</v>
+      </c>
       <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
+      <c r="L29" s="5">
+        <v>7022</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
+      <c r="O29" s="5" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="5">
-        <v>1110308</v>
+        <v>1110407</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D30" s="5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E30" s="5">
         <v>1</v>
       </c>
       <c r="F30" s="5">
-        <v>1120308</v>
+        <v>1120406</v>
       </c>
       <c r="G30" s="5">
         <v>1</v>
@@ -2548,29 +2561,37 @@
       <c r="I30" s="5">
         <v>500</v>
       </c>
-      <c r="J30" s="5"/>
+      <c r="J30" s="5">
+        <v>6023</v>
+      </c>
       <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
+      <c r="L30" s="5">
+        <v>7023</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
+      <c r="O30" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="5">
-        <v>1110309</v>
+        <v>1110408</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D31" s="5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E31" s="5">
         <v>1</v>
       </c>
       <c r="F31" s="5">
-        <v>1120309</v>
+        <v>1120409</v>
       </c>
       <c r="G31" s="5">
         <v>1</v>
@@ -2581,29 +2602,37 @@
       <c r="I31" s="5">
         <v>500</v>
       </c>
-      <c r="J31" s="5"/>
+      <c r="J31" s="5">
+        <v>6024</v>
+      </c>
       <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
+      <c r="L31" s="5">
+        <v>7024</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
+      <c r="O31" s="5" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="5">
-        <v>1110310</v>
+        <v>1110409</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D32" s="5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E32" s="5">
         <v>1</v>
       </c>
       <c r="F32" s="5">
-        <v>1120310</v>
+        <v>1120412</v>
       </c>
       <c r="G32" s="5">
         <v>1</v>
@@ -2614,29 +2643,37 @@
       <c r="I32" s="5">
         <v>500</v>
       </c>
-      <c r="J32" s="5"/>
+      <c r="J32" s="5">
+        <v>6025</v>
+      </c>
       <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
+      <c r="L32" s="5">
+        <v>7025</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
+      <c r="O32" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="5">
-        <v>1110311</v>
+        <v>1110410</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D33" s="5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
       </c>
       <c r="F33" s="5">
-        <v>1120311</v>
+        <v>1120415</v>
       </c>
       <c r="G33" s="5">
         <v>1</v>
@@ -2647,29 +2684,37 @@
       <c r="I33" s="5">
         <v>500</v>
       </c>
-      <c r="J33" s="5"/>
+      <c r="J33" s="5">
+        <v>6026</v>
+      </c>
       <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
+      <c r="L33" s="5">
+        <v>7026</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
+      <c r="O33" s="5" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="5">
-        <v>1110312</v>
+        <v>1110501</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D34" s="5">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E34" s="5">
         <v>1</v>
       </c>
       <c r="F34" s="5">
-        <v>1120312</v>
+        <v>1110503</v>
       </c>
       <c r="G34" s="5">
         <v>1</v>
@@ -2680,29 +2725,37 @@
       <c r="I34" s="5">
         <v>500</v>
       </c>
-      <c r="J34" s="5"/>
+      <c r="J34" s="5">
+        <v>6027</v>
+      </c>
       <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
+      <c r="L34" s="5">
+        <v>7027</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
+      <c r="O34" s="5" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="5">
-        <v>1110313</v>
+        <v>1110502</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D35" s="5">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E35" s="5">
         <v>1</v>
       </c>
       <c r="F35" s="5">
-        <v>1120313</v>
+        <v>1110506</v>
       </c>
       <c r="G35" s="5">
         <v>1</v>
@@ -2713,29 +2766,37 @@
       <c r="I35" s="5">
         <v>500</v>
       </c>
-      <c r="J35" s="5"/>
+      <c r="J35" s="5">
+        <v>6028</v>
+      </c>
       <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
+      <c r="L35" s="5">
+        <v>7028</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
+      <c r="O35" s="5" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="5">
-        <v>1110314</v>
+        <v>1110503</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D36" s="5">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E36" s="5">
         <v>1</v>
       </c>
       <c r="F36" s="5">
-        <v>1120314</v>
+        <v>1110509</v>
       </c>
       <c r="G36" s="5">
         <v>1</v>
@@ -2746,29 +2807,37 @@
       <c r="I36" s="5">
         <v>500</v>
       </c>
-      <c r="J36" s="5"/>
+      <c r="J36" s="5">
+        <v>6029</v>
+      </c>
       <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
+      <c r="L36" s="5">
+        <v>7029</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
+      <c r="O36" s="5" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="5">
-        <v>1110315</v>
+        <v>1110504</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D37" s="5">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E37" s="5">
         <v>1</v>
       </c>
       <c r="F37" s="5">
-        <v>1120315</v>
+        <v>1110512</v>
       </c>
       <c r="G37" s="5">
         <v>1</v>
@@ -2779,29 +2848,37 @@
       <c r="I37" s="5">
         <v>500</v>
       </c>
-      <c r="J37" s="5"/>
+      <c r="J37" s="5">
+        <v>6030</v>
+      </c>
       <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
+      <c r="L37" s="5">
+        <v>7030</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
+      <c r="O37" s="5" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="5">
-        <v>1110401</v>
+        <v>1110505</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D38" s="5">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E38" s="5">
         <v>1</v>
       </c>
       <c r="F38" s="5">
-        <v>1120401</v>
+        <v>1110515</v>
       </c>
       <c r="G38" s="5">
         <v>1</v>
@@ -2812,29 +2889,37 @@
       <c r="I38" s="5">
         <v>500</v>
       </c>
-      <c r="J38" s="5"/>
+      <c r="J38" s="5">
+        <v>6031</v>
+      </c>
       <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
+      <c r="L38" s="5">
+        <v>7031</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
+      <c r="O38" s="5" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="5">
-        <v>1110402</v>
+        <v>1110506</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D39" s="5">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E39" s="5">
         <v>1</v>
       </c>
       <c r="F39" s="5">
-        <v>1120402</v>
+        <v>1120503</v>
       </c>
       <c r="G39" s="5">
         <v>1</v>
@@ -2845,29 +2930,37 @@
       <c r="I39" s="5">
         <v>500</v>
       </c>
-      <c r="J39" s="5"/>
+      <c r="J39" s="5">
+        <v>6032</v>
+      </c>
       <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
+      <c r="L39" s="5">
+        <v>7032</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
+      <c r="O39" s="5" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="5">
-        <v>1110403</v>
+        <v>1110507</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D40" s="5">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E40" s="5">
         <v>1</v>
       </c>
       <c r="F40" s="5">
-        <v>1120403</v>
+        <v>1120506</v>
       </c>
       <c r="G40" s="5">
         <v>1</v>
@@ -2878,29 +2971,37 @@
       <c r="I40" s="5">
         <v>500</v>
       </c>
-      <c r="J40" s="5"/>
+      <c r="J40" s="5">
+        <v>6033</v>
+      </c>
       <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
+      <c r="L40" s="5">
+        <v>7033</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
+      <c r="O40" s="5" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="5">
-        <v>1110404</v>
+        <v>1110508</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D41" s="5">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
       </c>
       <c r="F41" s="5">
-        <v>1120404</v>
+        <v>1120509</v>
       </c>
       <c r="G41" s="5">
         <v>1</v>
@@ -2911,29 +3012,37 @@
       <c r="I41" s="5">
         <v>500</v>
       </c>
-      <c r="J41" s="5"/>
+      <c r="J41" s="5">
+        <v>6034</v>
+      </c>
       <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
+      <c r="L41" s="5">
+        <v>7034</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
+      <c r="O41" s="5" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="5">
-        <v>1110405</v>
+        <v>1110509</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D42" s="5">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E42" s="5">
         <v>1</v>
       </c>
       <c r="F42" s="5">
-        <v>1120405</v>
+        <v>1120512</v>
       </c>
       <c r="G42" s="5">
         <v>1</v>
@@ -2944,29 +3053,37 @@
       <c r="I42" s="5">
         <v>500</v>
       </c>
-      <c r="J42" s="5"/>
+      <c r="J42" s="5">
+        <v>6035</v>
+      </c>
       <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
+      <c r="L42" s="5">
+        <v>7035</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
+      <c r="O42" s="5" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="5">
-        <v>1110406</v>
+        <v>1110510</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D43" s="5">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E43" s="5">
         <v>1</v>
       </c>
       <c r="F43" s="5">
-        <v>1120406</v>
+        <v>1120515</v>
       </c>
       <c r="G43" s="5">
         <v>1</v>
@@ -2977,29 +3094,37 @@
       <c r="I43" s="5">
         <v>500</v>
       </c>
-      <c r="J43" s="5"/>
+      <c r="J43" s="5">
+        <v>6036</v>
+      </c>
       <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
+      <c r="L43" s="5">
+        <v>7036</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
+      <c r="O43" s="5" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="5">
-        <v>1110407</v>
+        <v>1110601</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D44" s="5">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E44" s="5">
         <v>1</v>
       </c>
       <c r="F44" s="5">
-        <v>1120407</v>
+        <v>1110603</v>
       </c>
       <c r="G44" s="5">
         <v>1</v>
@@ -3010,29 +3135,37 @@
       <c r="I44" s="5">
         <v>500</v>
       </c>
-      <c r="J44" s="5"/>
+      <c r="J44" s="5">
+        <v>6037</v>
+      </c>
       <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
+      <c r="L44" s="5">
+        <v>7037</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
+      <c r="O44" s="5" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="5">
-        <v>1110408</v>
+        <v>1110602</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="5">
         <v>106</v>
       </c>
-      <c r="D45" s="5">
-        <v>104</v>
-      </c>
       <c r="E45" s="5">
         <v>1</v>
       </c>
       <c r="F45" s="5">
-        <v>1120408</v>
+        <v>1110606</v>
       </c>
       <c r="G45" s="5">
         <v>1</v>
@@ -3043,29 +3176,37 @@
       <c r="I45" s="5">
         <v>500</v>
       </c>
-      <c r="J45" s="5"/>
+      <c r="J45" s="5">
+        <v>6038</v>
+      </c>
       <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
+      <c r="L45" s="5">
+        <v>7038</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
+      <c r="O45" s="5" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="5">
-        <v>1110409</v>
+        <v>1110603</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D46" s="5">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E46" s="5">
         <v>1</v>
       </c>
       <c r="F46" s="5">
-        <v>1120409</v>
+        <v>1110609</v>
       </c>
       <c r="G46" s="5">
         <v>1</v>
@@ -3076,29 +3217,37 @@
       <c r="I46" s="5">
         <v>500</v>
       </c>
-      <c r="J46" s="5"/>
+      <c r="J46" s="5">
+        <v>6039</v>
+      </c>
       <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
+      <c r="L46" s="5">
+        <v>7039</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
+      <c r="O46" s="5" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="5">
-        <v>1110410</v>
+        <v>1110604</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D47" s="5">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E47" s="5">
         <v>1</v>
       </c>
       <c r="F47" s="5">
-        <v>1120410</v>
+        <v>1110612</v>
       </c>
       <c r="G47" s="5">
         <v>1</v>
@@ -3109,29 +3258,37 @@
       <c r="I47" s="5">
         <v>500</v>
       </c>
-      <c r="J47" s="5"/>
+      <c r="J47" s="5">
+        <v>6040</v>
+      </c>
       <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
+      <c r="L47" s="5">
+        <v>7040</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
+      <c r="O47" s="5" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="5">
-        <v>1110411</v>
+        <v>1110605</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D48" s="5">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E48" s="5">
         <v>1</v>
       </c>
       <c r="F48" s="5">
-        <v>1120411</v>
+        <v>1110615</v>
       </c>
       <c r="G48" s="5">
         <v>1</v>
@@ -3142,29 +3299,37 @@
       <c r="I48" s="5">
         <v>500</v>
       </c>
-      <c r="J48" s="5"/>
+      <c r="J48" s="5">
+        <v>6041</v>
+      </c>
       <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
+      <c r="L48" s="5">
+        <v>7041</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
+      <c r="O48" s="5" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="5">
-        <v>1110412</v>
+        <v>1110606</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D49" s="5">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E49" s="5">
         <v>1</v>
       </c>
       <c r="F49" s="5">
-        <v>1120412</v>
+        <v>1120603</v>
       </c>
       <c r="G49" s="5">
         <v>1</v>
@@ -3175,29 +3340,37 @@
       <c r="I49" s="5">
         <v>500</v>
       </c>
-      <c r="J49" s="5"/>
+      <c r="J49" s="5">
+        <v>6042</v>
+      </c>
       <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
+      <c r="L49" s="5">
+        <v>7042</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
+      <c r="O49" s="5" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="5">
-        <v>1110413</v>
+        <v>1110607</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D50" s="5">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E50" s="5">
         <v>1</v>
       </c>
       <c r="F50" s="5">
-        <v>1120413</v>
+        <v>1120606</v>
       </c>
       <c r="G50" s="5">
         <v>1</v>
@@ -3208,29 +3381,37 @@
       <c r="I50" s="5">
         <v>500</v>
       </c>
-      <c r="J50" s="5"/>
+      <c r="J50" s="5">
+        <v>6043</v>
+      </c>
       <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
+      <c r="L50" s="5">
+        <v>7043</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
+      <c r="O50" s="5" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="5">
-        <v>1110414</v>
+        <v>1110608</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D51" s="5">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E51" s="5">
         <v>1</v>
       </c>
       <c r="F51" s="5">
-        <v>1120414</v>
+        <v>1120609</v>
       </c>
       <c r="G51" s="5">
         <v>1</v>
@@ -3241,29 +3422,37 @@
       <c r="I51" s="5">
         <v>500</v>
       </c>
-      <c r="J51" s="5"/>
+      <c r="J51" s="5">
+        <v>6044</v>
+      </c>
       <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
+      <c r="L51" s="5">
+        <v>7044</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
+      <c r="O51" s="5" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="5">
-        <v>1110415</v>
+        <v>1110609</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D52" s="5">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E52" s="5">
         <v>1</v>
       </c>
       <c r="F52" s="5">
-        <v>1120415</v>
+        <v>1120612</v>
       </c>
       <c r="G52" s="5">
         <v>1</v>
@@ -3274,29 +3463,37 @@
       <c r="I52" s="5">
         <v>500</v>
       </c>
-      <c r="J52" s="5"/>
+      <c r="J52" s="5">
+        <v>6045</v>
+      </c>
       <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
+      <c r="L52" s="5">
+        <v>7045</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
+      <c r="O52" s="5" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="5">
-        <v>1110501</v>
+        <v>1110610</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D53" s="5">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E53" s="5">
         <v>1</v>
       </c>
       <c r="F53" s="5">
-        <v>1120501</v>
+        <v>1120615</v>
       </c>
       <c r="G53" s="5">
         <v>1</v>
@@ -3307,29 +3504,37 @@
       <c r="I53" s="5">
         <v>500</v>
       </c>
-      <c r="J53" s="5"/>
+      <c r="J53" s="5">
+        <v>6046</v>
+      </c>
       <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
+      <c r="L53" s="5">
+        <v>7046</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
+      <c r="O53" s="5" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="5">
-        <v>1110502</v>
+        <v>1110701</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D54" s="5">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E54" s="5">
         <v>1</v>
       </c>
       <c r="F54" s="5">
-        <v>1120502</v>
+        <v>1110703</v>
       </c>
       <c r="G54" s="5">
         <v>1</v>
@@ -3340,29 +3545,37 @@
       <c r="I54" s="5">
         <v>500</v>
       </c>
-      <c r="J54" s="5"/>
+      <c r="J54" s="5">
+        <v>6047</v>
+      </c>
       <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
+      <c r="L54" s="5">
+        <v>7047</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
+      <c r="O54" s="5" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="5">
-        <v>1110503</v>
+        <v>1110702</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D55" s="5">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E55" s="5">
         <v>1</v>
       </c>
       <c r="F55" s="5">
-        <v>1120503</v>
+        <v>1110706</v>
       </c>
       <c r="G55" s="5">
         <v>1</v>
@@ -3373,29 +3586,37 @@
       <c r="I55" s="5">
         <v>500</v>
       </c>
-      <c r="J55" s="5"/>
+      <c r="J55" s="5">
+        <v>6048</v>
+      </c>
       <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
+      <c r="L55" s="5">
+        <v>7048</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
+      <c r="O55" s="5" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="5">
-        <v>1110504</v>
+        <v>1110703</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D56" s="5">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E56" s="5">
         <v>1</v>
       </c>
       <c r="F56" s="5">
-        <v>1120504</v>
+        <v>1110709</v>
       </c>
       <c r="G56" s="5">
         <v>1</v>
@@ -3406,29 +3627,37 @@
       <c r="I56" s="5">
         <v>500</v>
       </c>
-      <c r="J56" s="5"/>
+      <c r="J56" s="5">
+        <v>6049</v>
+      </c>
       <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
+      <c r="L56" s="5">
+        <v>7049</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
+      <c r="O56" s="5" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="5">
-        <v>1110505</v>
+        <v>1110704</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D57" s="5">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E57" s="5">
         <v>1</v>
       </c>
       <c r="F57" s="5">
-        <v>1120505</v>
+        <v>1110712</v>
       </c>
       <c r="G57" s="5">
         <v>1</v>
@@ -3439,29 +3668,37 @@
       <c r="I57" s="5">
         <v>500</v>
       </c>
-      <c r="J57" s="5"/>
+      <c r="J57" s="5">
+        <v>6050</v>
+      </c>
       <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
+      <c r="L57" s="5">
+        <v>7050</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
+      <c r="O57" s="5" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="5">
-        <v>1110506</v>
+        <v>1110705</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D58" s="5">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E58" s="5">
         <v>1</v>
       </c>
       <c r="F58" s="5">
-        <v>1120506</v>
+        <v>1110715</v>
       </c>
       <c r="G58" s="5">
         <v>1</v>
@@ -3472,29 +3709,37 @@
       <c r="I58" s="5">
         <v>500</v>
       </c>
-      <c r="J58" s="5"/>
+      <c r="J58" s="5">
+        <v>6051</v>
+      </c>
       <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
+      <c r="L58" s="5">
+        <v>7051</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
+      <c r="O58" s="5" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="5">
-        <v>1110507</v>
+        <v>1110706</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D59" s="5">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E59" s="5">
         <v>1</v>
       </c>
       <c r="F59" s="5">
-        <v>1120507</v>
+        <v>1120703</v>
       </c>
       <c r="G59" s="5">
         <v>1</v>
@@ -3505,29 +3750,37 @@
       <c r="I59" s="5">
         <v>500</v>
       </c>
-      <c r="J59" s="5"/>
+      <c r="J59" s="5">
+        <v>6052</v>
+      </c>
       <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
+      <c r="L59" s="5">
+        <v>7052</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
+      <c r="O59" s="5" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="5">
-        <v>1110508</v>
+        <v>1110707</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D60" s="5">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E60" s="5">
         <v>1</v>
       </c>
       <c r="F60" s="5">
-        <v>1120508</v>
+        <v>1120706</v>
       </c>
       <c r="G60" s="5">
         <v>1</v>
@@ -3538,29 +3791,37 @@
       <c r="I60" s="5">
         <v>500</v>
       </c>
-      <c r="J60" s="5"/>
+      <c r="J60" s="5">
+        <v>6053</v>
+      </c>
       <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
+      <c r="L60" s="5">
+        <v>7053</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
+      <c r="O60" s="5" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="5">
-        <v>1110509</v>
+        <v>1110708</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D61" s="5">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E61" s="5">
         <v>1</v>
       </c>
       <c r="F61" s="5">
-        <v>1120509</v>
+        <v>1120709</v>
       </c>
       <c r="G61" s="5">
         <v>1</v>
@@ -3571,29 +3832,37 @@
       <c r="I61" s="5">
         <v>500</v>
       </c>
-      <c r="J61" s="5"/>
+      <c r="J61" s="5">
+        <v>6054</v>
+      </c>
       <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
+      <c r="L61" s="5">
+        <v>7054</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
+      <c r="O61" s="5" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="5">
-        <v>1110510</v>
+        <v>1110709</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D62" s="5">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E62" s="5">
         <v>1</v>
       </c>
       <c r="F62" s="5">
-        <v>1120510</v>
+        <v>1120712</v>
       </c>
       <c r="G62" s="5">
         <v>1</v>
@@ -3604,29 +3873,37 @@
       <c r="I62" s="5">
         <v>500</v>
       </c>
-      <c r="J62" s="5"/>
+      <c r="J62" s="5">
+        <v>6055</v>
+      </c>
       <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
+      <c r="L62" s="5">
+        <v>7055</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
+      <c r="O62" s="5" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="B63" s="5">
-        <v>1110511</v>
+        <v>1110710</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D63" s="5">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E63" s="5">
         <v>1</v>
       </c>
       <c r="F63" s="5">
-        <v>1120511</v>
+        <v>1120715</v>
       </c>
       <c r="G63" s="5">
         <v>1</v>
@@ -3637,29 +3914,37 @@
       <c r="I63" s="5">
         <v>500</v>
       </c>
-      <c r="J63" s="5"/>
+      <c r="J63" s="5">
+        <v>6056</v>
+      </c>
       <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
+      <c r="L63" s="5">
+        <v>7056</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
+      <c r="O63" s="5" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
       <c r="B64" s="5">
-        <v>1110512</v>
+        <v>1110801</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D64" s="5">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E64" s="5">
         <v>1</v>
       </c>
       <c r="F64" s="5">
-        <v>1120512</v>
+        <v>1110801</v>
       </c>
       <c r="G64" s="5">
         <v>1</v>
@@ -3670,29 +3955,37 @@
       <c r="I64" s="5">
         <v>500</v>
       </c>
-      <c r="J64" s="5"/>
+      <c r="J64" s="5">
+        <v>6057</v>
+      </c>
       <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
+      <c r="L64" s="5">
+        <v>7057</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
+      <c r="O64" s="5" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
       <c r="B65" s="5">
-        <v>1110513</v>
+        <v>1110802</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D65" s="5">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E65" s="5">
         <v>1</v>
       </c>
       <c r="F65" s="5">
-        <v>1120513</v>
+        <v>1110803</v>
       </c>
       <c r="G65" s="5">
         <v>1</v>
@@ -3703,29 +3996,37 @@
       <c r="I65" s="5">
         <v>500</v>
       </c>
-      <c r="J65" s="5"/>
+      <c r="J65" s="5">
+        <v>6058</v>
+      </c>
       <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
+      <c r="L65" s="5">
+        <v>7058</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
+      <c r="O65" s="5" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
       <c r="B66" s="5">
-        <v>1110514</v>
+        <v>1110803</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D66" s="5">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E66" s="5">
         <v>1</v>
       </c>
       <c r="F66" s="5">
-        <v>1120514</v>
+        <v>1110806</v>
       </c>
       <c r="G66" s="5">
         <v>1</v>
@@ -3736,29 +4037,37 @@
       <c r="I66" s="5">
         <v>500</v>
       </c>
-      <c r="J66" s="5"/>
+      <c r="J66" s="5">
+        <v>6059</v>
+      </c>
       <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
+      <c r="L66" s="5">
+        <v>7059</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
+      <c r="O66" s="5" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
       <c r="B67" s="5">
-        <v>1110515</v>
+        <v>1110804</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D67" s="5">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E67" s="5">
         <v>1</v>
       </c>
       <c r="F67" s="5">
-        <v>1120515</v>
+        <v>1110809</v>
       </c>
       <c r="G67" s="5">
         <v>1</v>
@@ -3769,29 +4078,37 @@
       <c r="I67" s="5">
         <v>500</v>
       </c>
-      <c r="J67" s="5"/>
+      <c r="J67" s="5">
+        <v>6060</v>
+      </c>
       <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
+      <c r="L67" s="5">
+        <v>7060</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
+      <c r="O67" s="5" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="B68" s="5">
-        <v>1110601</v>
+        <v>1110805</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D68" s="5">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E68" s="5">
         <v>1</v>
       </c>
       <c r="F68" s="5">
-        <v>1120601</v>
+        <v>1110812</v>
       </c>
       <c r="G68" s="5">
         <v>1</v>
@@ -3802,29 +4119,37 @@
       <c r="I68" s="5">
         <v>500</v>
       </c>
-      <c r="J68" s="5"/>
+      <c r="J68" s="5">
+        <v>6061</v>
+      </c>
       <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
+      <c r="L68" s="5">
+        <v>7061</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
+      <c r="O68" s="5" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
       <c r="B69" s="5">
-        <v>1110602</v>
+        <v>1110806</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D69" s="5">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E69" s="5">
         <v>1</v>
       </c>
       <c r="F69" s="5">
-        <v>1120602</v>
+        <v>1110815</v>
       </c>
       <c r="G69" s="5">
         <v>1</v>
@@ -3835,29 +4160,37 @@
       <c r="I69" s="5">
         <v>500</v>
       </c>
-      <c r="J69" s="5"/>
+      <c r="J69" s="5">
+        <v>6062</v>
+      </c>
       <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
+      <c r="L69" s="5">
+        <v>7062</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
+      <c r="O69" s="5" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
       <c r="B70" s="5">
-        <v>1110603</v>
+        <v>1110807</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D70" s="5">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E70" s="5">
         <v>1</v>
       </c>
       <c r="F70" s="5">
-        <v>1120603</v>
+        <v>1120801</v>
       </c>
       <c r="G70" s="5">
         <v>1</v>
@@ -3868,29 +4201,37 @@
       <c r="I70" s="5">
         <v>500</v>
       </c>
-      <c r="J70" s="5"/>
+      <c r="J70" s="5">
+        <v>6063</v>
+      </c>
       <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
+      <c r="L70" s="5">
+        <v>7063</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
+      <c r="O70" s="5" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
       <c r="B71" s="5">
-        <v>1110604</v>
+        <v>1110808</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D71" s="5">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E71" s="5">
         <v>1</v>
       </c>
       <c r="F71" s="5">
-        <v>1120604</v>
+        <v>1120803</v>
       </c>
       <c r="G71" s="5">
         <v>1</v>
@@ -3901,29 +4242,37 @@
       <c r="I71" s="5">
         <v>500</v>
       </c>
-      <c r="J71" s="5"/>
+      <c r="J71" s="5">
+        <v>6064</v>
+      </c>
       <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
+      <c r="L71" s="5">
+        <v>7064</v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
+      <c r="O71" s="5" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
       <c r="B72" s="5">
-        <v>1110605</v>
+        <v>1110809</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D72" s="5">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E72" s="5">
         <v>1</v>
       </c>
       <c r="F72" s="5">
-        <v>1120605</v>
+        <v>1120806</v>
       </c>
       <c r="G72" s="5">
         <v>1</v>
@@ -3934,29 +4283,37 @@
       <c r="I72" s="5">
         <v>500</v>
       </c>
-      <c r="J72" s="5"/>
+      <c r="J72" s="5">
+        <v>6065</v>
+      </c>
       <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
+      <c r="L72" s="5">
+        <v>7065</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
+      <c r="O72" s="5" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="B73" s="5">
-        <v>1110606</v>
+        <v>1110810</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D73" s="5">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E73" s="5">
         <v>1</v>
       </c>
       <c r="F73" s="5">
-        <v>1120606</v>
+        <v>1120809</v>
       </c>
       <c r="G73" s="5">
         <v>1</v>
@@ -3967,29 +4324,37 @@
       <c r="I73" s="5">
         <v>500</v>
       </c>
-      <c r="J73" s="5"/>
+      <c r="J73" s="5">
+        <v>6066</v>
+      </c>
       <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
+      <c r="L73" s="5">
+        <v>7066</v>
+      </c>
+      <c r="M73" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
+      <c r="O73" s="5" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
       <c r="B74" s="5">
-        <v>1110607</v>
+        <v>1110811</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D74" s="5">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E74" s="5">
         <v>1</v>
       </c>
       <c r="F74" s="5">
-        <v>1120607</v>
+        <v>1120812</v>
       </c>
       <c r="G74" s="5">
         <v>1</v>
@@ -4000,29 +4365,37 @@
       <c r="I74" s="5">
         <v>500</v>
       </c>
-      <c r="J74" s="5"/>
+      <c r="J74" s="5">
+        <v>6067</v>
+      </c>
       <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
+      <c r="L74" s="5">
+        <v>7067</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
+      <c r="O74" s="5" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
       <c r="B75" s="5">
-        <v>1110608</v>
+        <v>1110812</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D75" s="5">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E75" s="5">
         <v>1</v>
       </c>
       <c r="F75" s="5">
-        <v>1120608</v>
+        <v>1120815</v>
       </c>
       <c r="G75" s="5">
         <v>1</v>
@@ -4033,29 +4406,37 @@
       <c r="I75" s="5">
         <v>500</v>
       </c>
-      <c r="J75" s="5"/>
+      <c r="J75" s="5">
+        <v>6068</v>
+      </c>
       <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
+      <c r="L75" s="5">
+        <v>7068</v>
+      </c>
+      <c r="M75" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
+      <c r="O75" s="5" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="1"/>
       <c r="B76" s="5">
-        <v>1110609</v>
+        <v>1110901</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D76" s="5">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E76" s="5">
         <v>1</v>
       </c>
       <c r="F76" s="5">
-        <v>1120609</v>
+        <v>1110901</v>
       </c>
       <c r="G76" s="5">
         <v>1</v>
@@ -4066,29 +4447,37 @@
       <c r="I76" s="5">
         <v>500</v>
       </c>
-      <c r="J76" s="5"/>
+      <c r="J76" s="5">
+        <v>6069</v>
+      </c>
       <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
+      <c r="L76" s="5">
+        <v>7069</v>
+      </c>
+      <c r="M76" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
+      <c r="O76" s="5" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
       <c r="B77" s="5">
-        <v>1110610</v>
+        <v>1110902</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D77" s="5">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E77" s="5">
         <v>1</v>
       </c>
       <c r="F77" s="5">
-        <v>1120610</v>
+        <v>1110903</v>
       </c>
       <c r="G77" s="5">
         <v>1</v>
@@ -4099,29 +4488,37 @@
       <c r="I77" s="5">
         <v>500</v>
       </c>
-      <c r="J77" s="5"/>
+      <c r="J77" s="5">
+        <v>6070</v>
+      </c>
       <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
+      <c r="L77" s="5">
+        <v>7070</v>
+      </c>
+      <c r="M77" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="N77" s="5"/>
-      <c r="O77" s="5"/>
+      <c r="O77" s="5" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
       <c r="B78" s="5">
-        <v>1110611</v>
+        <v>1110903</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D78" s="5">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E78" s="5">
         <v>1</v>
       </c>
       <c r="F78" s="5">
-        <v>1120611</v>
+        <v>1110906</v>
       </c>
       <c r="G78" s="5">
         <v>1</v>
@@ -4132,29 +4529,37 @@
       <c r="I78" s="5">
         <v>500</v>
       </c>
-      <c r="J78" s="5"/>
+      <c r="J78" s="5">
+        <v>6071</v>
+      </c>
       <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
+      <c r="L78" s="5">
+        <v>7071</v>
+      </c>
+      <c r="M78" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
+      <c r="O78" s="5" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
       <c r="B79" s="5">
-        <v>1110612</v>
+        <v>1110904</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D79" s="5">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E79" s="5">
         <v>1</v>
       </c>
       <c r="F79" s="5">
-        <v>1120612</v>
+        <v>1110909</v>
       </c>
       <c r="G79" s="5">
         <v>1</v>
@@ -4165,29 +4570,37 @@
       <c r="I79" s="5">
         <v>500</v>
       </c>
-      <c r="J79" s="5"/>
+      <c r="J79" s="5">
+        <v>6072</v>
+      </c>
       <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
+      <c r="L79" s="5">
+        <v>7072</v>
+      </c>
+      <c r="M79" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
+      <c r="O79" s="5" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="B80" s="5">
-        <v>1110613</v>
+        <v>1110905</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D80" s="5">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E80" s="5">
         <v>1</v>
       </c>
       <c r="F80" s="5">
-        <v>1120613</v>
+        <v>1110912</v>
       </c>
       <c r="G80" s="5">
         <v>1</v>
@@ -4198,29 +4611,37 @@
       <c r="I80" s="5">
         <v>500</v>
       </c>
-      <c r="J80" s="5"/>
+      <c r="J80" s="5">
+        <v>6073</v>
+      </c>
       <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
+      <c r="L80" s="5">
+        <v>7073</v>
+      </c>
+      <c r="M80" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="N80" s="5"/>
-      <c r="O80" s="5"/>
+      <c r="O80" s="5" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
       <c r="B81" s="5">
-        <v>1110614</v>
+        <v>1110906</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D81" s="5">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E81" s="5">
         <v>1</v>
       </c>
       <c r="F81" s="5">
-        <v>1120614</v>
+        <v>1110915</v>
       </c>
       <c r="G81" s="5">
         <v>1</v>
@@ -4231,29 +4652,37 @@
       <c r="I81" s="5">
         <v>500</v>
       </c>
-      <c r="J81" s="5"/>
+      <c r="J81" s="5">
+        <v>6074</v>
+      </c>
       <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
+      <c r="L81" s="5">
+        <v>7074</v>
+      </c>
+      <c r="M81" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="N81" s="5"/>
-      <c r="O81" s="5"/>
+      <c r="O81" s="5" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
       <c r="B82" s="5">
-        <v>1110615</v>
+        <v>1110907</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D82" s="5">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E82" s="5">
         <v>1</v>
       </c>
       <c r="F82" s="5">
-        <v>1120615</v>
+        <v>1120901</v>
       </c>
       <c r="G82" s="5">
         <v>1</v>
@@ -4264,29 +4693,37 @@
       <c r="I82" s="5">
         <v>500</v>
       </c>
-      <c r="J82" s="5"/>
+      <c r="J82" s="5">
+        <v>6075</v>
+      </c>
       <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
+      <c r="L82" s="5">
+        <v>7075</v>
+      </c>
+      <c r="M82" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
+      <c r="O82" s="5" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
       <c r="B83" s="5">
-        <v>1110701</v>
+        <v>1110908</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D83" s="5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" s="5">
         <v>1</v>
       </c>
       <c r="F83" s="5">
-        <v>1120701</v>
+        <v>1120903</v>
       </c>
       <c r="G83" s="5">
         <v>1</v>
@@ -4297,29 +4734,37 @@
       <c r="I83" s="5">
         <v>500</v>
       </c>
-      <c r="J83" s="5"/>
+      <c r="J83" s="5">
+        <v>6076</v>
+      </c>
       <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
+      <c r="L83" s="5">
+        <v>7076</v>
+      </c>
+      <c r="M83" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
+      <c r="O83" s="5" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
       <c r="B84" s="5">
-        <v>1110702</v>
+        <v>1110909</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D84" s="5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" s="5">
         <v>1</v>
       </c>
       <c r="F84" s="5">
-        <v>1120702</v>
+        <v>1120906</v>
       </c>
       <c r="G84" s="5">
         <v>1</v>
@@ -4330,29 +4775,37 @@
       <c r="I84" s="5">
         <v>500</v>
       </c>
-      <c r="J84" s="5"/>
+      <c r="J84" s="5">
+        <v>6077</v>
+      </c>
       <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
+      <c r="L84" s="5">
+        <v>7077</v>
+      </c>
+      <c r="M84" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
+      <c r="O84" s="5" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
       <c r="B85" s="5">
-        <v>1110703</v>
+        <v>1110910</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D85" s="5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" s="5">
         <v>1</v>
       </c>
       <c r="F85" s="5">
-        <v>1120703</v>
+        <v>1120909</v>
       </c>
       <c r="G85" s="5">
         <v>1</v>
@@ -4363,29 +4816,37 @@
       <c r="I85" s="5">
         <v>500</v>
       </c>
-      <c r="J85" s="5"/>
+      <c r="J85" s="5">
+        <v>6078</v>
+      </c>
       <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
+      <c r="L85" s="5">
+        <v>7078</v>
+      </c>
+      <c r="M85" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="N85" s="5"/>
-      <c r="O85" s="5"/>
+      <c r="O85" s="5" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A86" s="1"/>
       <c r="B86" s="5">
-        <v>1110704</v>
+        <v>1110911</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D86" s="5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" s="5">
         <v>1</v>
       </c>
       <c r="F86" s="5">
-        <v>1120704</v>
+        <v>1120912</v>
       </c>
       <c r="G86" s="5">
         <v>1</v>
@@ -4396,29 +4857,37 @@
       <c r="I86" s="5">
         <v>500</v>
       </c>
-      <c r="J86" s="5"/>
+      <c r="J86" s="5">
+        <v>6079</v>
+      </c>
       <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
+      <c r="L86" s="5">
+        <v>7079</v>
+      </c>
+      <c r="M86" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
+      <c r="O86" s="5" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
       <c r="B87" s="5">
-        <v>1110705</v>
+        <v>1110912</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D87" s="5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="5">
         <v>1</v>
       </c>
       <c r="F87" s="5">
-        <v>1120705</v>
+        <v>1120915</v>
       </c>
       <c r="G87" s="5">
         <v>1</v>
@@ -4429,1332 +4898,20 @@
       <c r="I87" s="5">
         <v>500</v>
       </c>
-      <c r="J87" s="5"/>
+      <c r="J87" s="5">
+        <v>6080</v>
+      </c>
       <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
+      <c r="L87" s="5">
+        <v>7080</v>
+      </c>
+      <c r="M87" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A88" s="1"/>
-      <c r="B88" s="5">
-        <v>1110706</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D88" s="5">
-        <v>107</v>
-      </c>
-      <c r="E88" s="5">
-        <v>1</v>
-      </c>
-      <c r="F88" s="5">
-        <v>1120706</v>
-      </c>
-      <c r="G88" s="5">
-        <v>1</v>
-      </c>
-      <c r="H88" s="5">
-        <v>300</v>
-      </c>
-      <c r="I88" s="5">
-        <v>500</v>
-      </c>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A89" s="1"/>
-      <c r="B89" s="5">
-        <v>1110707</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D89" s="5">
-        <v>107</v>
-      </c>
-      <c r="E89" s="5">
-        <v>1</v>
-      </c>
-      <c r="F89" s="5">
-        <v>1120707</v>
-      </c>
-      <c r="G89" s="5">
-        <v>1</v>
-      </c>
-      <c r="H89" s="5">
-        <v>300</v>
-      </c>
-      <c r="I89" s="5">
-        <v>500</v>
-      </c>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A90" s="1"/>
-      <c r="B90" s="5">
-        <v>1110708</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D90" s="5">
-        <v>107</v>
-      </c>
-      <c r="E90" s="5">
-        <v>1</v>
-      </c>
-      <c r="F90" s="5">
-        <v>1120708</v>
-      </c>
-      <c r="G90" s="5">
-        <v>1</v>
-      </c>
-      <c r="H90" s="5">
-        <v>300</v>
-      </c>
-      <c r="I90" s="5">
-        <v>500</v>
-      </c>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A91" s="1"/>
-      <c r="B91" s="5">
-        <v>1110709</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D91" s="5">
-        <v>107</v>
-      </c>
-      <c r="E91" s="5">
-        <v>1</v>
-      </c>
-      <c r="F91" s="5">
-        <v>1120709</v>
-      </c>
-      <c r="G91" s="5">
-        <v>1</v>
-      </c>
-      <c r="H91" s="5">
-        <v>300</v>
-      </c>
-      <c r="I91" s="5">
-        <v>500</v>
-      </c>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="5"/>
-      <c r="N91" s="5"/>
-      <c r="O91" s="5"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A92" s="1"/>
-      <c r="B92" s="5">
-        <v>1110710</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D92" s="5">
-        <v>107</v>
-      </c>
-      <c r="E92" s="5">
-        <v>1</v>
-      </c>
-      <c r="F92" s="5">
-        <v>1120710</v>
-      </c>
-      <c r="G92" s="5">
-        <v>1</v>
-      </c>
-      <c r="H92" s="5">
-        <v>300</v>
-      </c>
-      <c r="I92" s="5">
-        <v>500</v>
-      </c>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A93" s="1"/>
-      <c r="B93" s="5">
-        <v>1110711</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D93" s="5">
-        <v>107</v>
-      </c>
-      <c r="E93" s="5">
-        <v>1</v>
-      </c>
-      <c r="F93" s="5">
-        <v>1120711</v>
-      </c>
-      <c r="G93" s="5">
-        <v>1</v>
-      </c>
-      <c r="H93" s="5">
-        <v>300</v>
-      </c>
-      <c r="I93" s="5">
-        <v>500</v>
-      </c>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A94" s="1"/>
-      <c r="B94" s="5">
-        <v>1110712</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D94" s="5">
-        <v>107</v>
-      </c>
-      <c r="E94" s="5">
-        <v>1</v>
-      </c>
-      <c r="F94" s="5">
-        <v>1120712</v>
-      </c>
-      <c r="G94" s="5">
-        <v>1</v>
-      </c>
-      <c r="H94" s="5">
-        <v>300</v>
-      </c>
-      <c r="I94" s="5">
-        <v>500</v>
-      </c>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
-      <c r="M94" s="5"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="5"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A95" s="1"/>
-      <c r="B95" s="5">
-        <v>1110713</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D95" s="5">
-        <v>107</v>
-      </c>
-      <c r="E95" s="5">
-        <v>1</v>
-      </c>
-      <c r="F95" s="5">
-        <v>1120713</v>
-      </c>
-      <c r="G95" s="5">
-        <v>1</v>
-      </c>
-      <c r="H95" s="5">
-        <v>300</v>
-      </c>
-      <c r="I95" s="5">
-        <v>500</v>
-      </c>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
-      <c r="O95" s="5"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A96" s="1"/>
-      <c r="B96" s="5">
-        <v>1110714</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D96" s="5">
-        <v>107</v>
-      </c>
-      <c r="E96" s="5">
-        <v>1</v>
-      </c>
-      <c r="F96" s="5">
-        <v>1120714</v>
-      </c>
-      <c r="G96" s="5">
-        <v>1</v>
-      </c>
-      <c r="H96" s="5">
-        <v>300</v>
-      </c>
-      <c r="I96" s="5">
-        <v>500</v>
-      </c>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
-      <c r="M96" s="5"/>
-      <c r="N96" s="5"/>
-      <c r="O96" s="5"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A97" s="1"/>
-      <c r="B97" s="5">
-        <v>1110715</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D97" s="5">
-        <v>107</v>
-      </c>
-      <c r="E97" s="5">
-        <v>1</v>
-      </c>
-      <c r="F97" s="5">
-        <v>1120715</v>
-      </c>
-      <c r="G97" s="5">
-        <v>1</v>
-      </c>
-      <c r="H97" s="5">
-        <v>300</v>
-      </c>
-      <c r="I97" s="5">
-        <v>500</v>
-      </c>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
-      <c r="M97" s="5"/>
-      <c r="N97" s="5"/>
-      <c r="O97" s="5"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A98" s="1"/>
-      <c r="B98" s="5">
-        <v>1110801</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D98" s="5">
-        <v>108</v>
-      </c>
-      <c r="E98" s="5">
-        <v>1</v>
-      </c>
-      <c r="F98" s="5">
-        <v>1120801</v>
-      </c>
-      <c r="G98" s="5">
-        <v>1</v>
-      </c>
-      <c r="H98" s="5">
-        <v>300</v>
-      </c>
-      <c r="I98" s="5">
-        <v>500</v>
-      </c>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
-      <c r="M98" s="5"/>
-      <c r="N98" s="5"/>
-      <c r="O98" s="5"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A99" s="1"/>
-      <c r="B99" s="5">
-        <v>1110802</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D99" s="5">
-        <v>108</v>
-      </c>
-      <c r="E99" s="5">
-        <v>1</v>
-      </c>
-      <c r="F99" s="5">
-        <v>1120802</v>
-      </c>
-      <c r="G99" s="5">
-        <v>1</v>
-      </c>
-      <c r="H99" s="5">
-        <v>300</v>
-      </c>
-      <c r="I99" s="5">
-        <v>500</v>
-      </c>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
-      <c r="L99" s="5"/>
-      <c r="M99" s="5"/>
-      <c r="N99" s="5"/>
-      <c r="O99" s="5"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A100" s="1"/>
-      <c r="B100" s="5">
-        <v>1110803</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D100" s="5">
-        <v>108</v>
-      </c>
-      <c r="E100" s="5">
-        <v>1</v>
-      </c>
-      <c r="F100" s="5">
-        <v>1120803</v>
-      </c>
-      <c r="G100" s="5">
-        <v>1</v>
-      </c>
-      <c r="H100" s="5">
-        <v>300</v>
-      </c>
-      <c r="I100" s="5">
-        <v>500</v>
-      </c>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
-      <c r="O100" s="5"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A101" s="1"/>
-      <c r="B101" s="5">
-        <v>1110804</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D101" s="5">
-        <v>108</v>
-      </c>
-      <c r="E101" s="5">
-        <v>1</v>
-      </c>
-      <c r="F101" s="5">
-        <v>1120804</v>
-      </c>
-      <c r="G101" s="5">
-        <v>1</v>
-      </c>
-      <c r="H101" s="5">
-        <v>300</v>
-      </c>
-      <c r="I101" s="5">
-        <v>500</v>
-      </c>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
-      <c r="O101" s="5"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A102" s="1"/>
-      <c r="B102" s="5">
-        <v>1110805</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D102" s="5">
-        <v>108</v>
-      </c>
-      <c r="E102" s="5">
-        <v>1</v>
-      </c>
-      <c r="F102" s="5">
-        <v>1120805</v>
-      </c>
-      <c r="G102" s="5">
-        <v>1</v>
-      </c>
-      <c r="H102" s="5">
-        <v>300</v>
-      </c>
-      <c r="I102" s="5">
-        <v>500</v>
-      </c>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="5"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5"/>
-      <c r="O102" s="5"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A103" s="1"/>
-      <c r="B103" s="5">
-        <v>1110806</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D103" s="5">
-        <v>108</v>
-      </c>
-      <c r="E103" s="5">
-        <v>1</v>
-      </c>
-      <c r="F103" s="5">
-        <v>1120806</v>
-      </c>
-      <c r="G103" s="5">
-        <v>1</v>
-      </c>
-      <c r="H103" s="5">
-        <v>300</v>
-      </c>
-      <c r="I103" s="5">
-        <v>500</v>
-      </c>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="5"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
-      <c r="O103" s="5"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A104" s="1"/>
-      <c r="B104" s="5">
-        <v>1110807</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D104" s="5">
-        <v>108</v>
-      </c>
-      <c r="E104" s="5">
-        <v>1</v>
-      </c>
-      <c r="F104" s="5">
-        <v>1120807</v>
-      </c>
-      <c r="G104" s="5">
-        <v>1</v>
-      </c>
-      <c r="H104" s="5">
-        <v>300</v>
-      </c>
-      <c r="I104" s="5">
-        <v>500</v>
-      </c>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
-      <c r="L104" s="5"/>
-      <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
-      <c r="O104" s="5"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A105" s="1"/>
-      <c r="B105" s="5">
-        <v>1110808</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D105" s="5">
-        <v>108</v>
-      </c>
-      <c r="E105" s="5">
-        <v>1</v>
-      </c>
-      <c r="F105" s="5">
-        <v>1120808</v>
-      </c>
-      <c r="G105" s="5">
-        <v>1</v>
-      </c>
-      <c r="H105" s="5">
-        <v>300</v>
-      </c>
-      <c r="I105" s="5">
-        <v>500</v>
-      </c>
-      <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
-      <c r="L105" s="5"/>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
-      <c r="O105" s="5"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A106" s="1"/>
-      <c r="B106" s="5">
-        <v>1110809</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D106" s="5">
-        <v>108</v>
-      </c>
-      <c r="E106" s="5">
-        <v>1</v>
-      </c>
-      <c r="F106" s="5">
-        <v>1120809</v>
-      </c>
-      <c r="G106" s="5">
-        <v>1</v>
-      </c>
-      <c r="H106" s="5">
-        <v>300</v>
-      </c>
-      <c r="I106" s="5">
-        <v>500</v>
-      </c>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5"/>
-      <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
-      <c r="O106" s="5"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A107" s="1"/>
-      <c r="B107" s="5">
-        <v>1110810</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D107" s="5">
-        <v>108</v>
-      </c>
-      <c r="E107" s="5">
-        <v>1</v>
-      </c>
-      <c r="F107" s="5">
-        <v>1120810</v>
-      </c>
-      <c r="G107" s="5">
-        <v>1</v>
-      </c>
-      <c r="H107" s="5">
-        <v>300</v>
-      </c>
-      <c r="I107" s="5">
-        <v>500</v>
-      </c>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
-      <c r="O107" s="5"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A108" s="1"/>
-      <c r="B108" s="5">
-        <v>1110811</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D108" s="5">
-        <v>108</v>
-      </c>
-      <c r="E108" s="5">
-        <v>1</v>
-      </c>
-      <c r="F108" s="5">
-        <v>1120811</v>
-      </c>
-      <c r="G108" s="5">
-        <v>1</v>
-      </c>
-      <c r="H108" s="5">
-        <v>300</v>
-      </c>
-      <c r="I108" s="5">
-        <v>500</v>
-      </c>
-      <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
-      <c r="L108" s="5"/>
-      <c r="M108" s="5"/>
-      <c r="N108" s="5"/>
-      <c r="O108" s="5"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A109" s="1"/>
-      <c r="B109" s="5">
-        <v>1110812</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D109" s="5">
-        <v>108</v>
-      </c>
-      <c r="E109" s="5">
-        <v>1</v>
-      </c>
-      <c r="F109" s="5">
-        <v>1120812</v>
-      </c>
-      <c r="G109" s="5">
-        <v>1</v>
-      </c>
-      <c r="H109" s="5">
-        <v>300</v>
-      </c>
-      <c r="I109" s="5">
-        <v>500</v>
-      </c>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
-      <c r="L109" s="5"/>
-      <c r="M109" s="5"/>
-      <c r="N109" s="5"/>
-      <c r="O109" s="5"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A110" s="1"/>
-      <c r="B110" s="5">
-        <v>1110813</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D110" s="5">
-        <v>108</v>
-      </c>
-      <c r="E110" s="5">
-        <v>1</v>
-      </c>
-      <c r="F110" s="5">
-        <v>1120813</v>
-      </c>
-      <c r="G110" s="5">
-        <v>1</v>
-      </c>
-      <c r="H110" s="5">
-        <v>300</v>
-      </c>
-      <c r="I110" s="5">
-        <v>500</v>
-      </c>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
-      <c r="L110" s="5"/>
-      <c r="M110" s="5"/>
-      <c r="N110" s="5"/>
-      <c r="O110" s="5"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A111" s="1"/>
-      <c r="B111" s="5">
-        <v>1110814</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D111" s="5">
-        <v>108</v>
-      </c>
-      <c r="E111" s="5">
-        <v>1</v>
-      </c>
-      <c r="F111" s="5">
-        <v>1120814</v>
-      </c>
-      <c r="G111" s="5">
-        <v>1</v>
-      </c>
-      <c r="H111" s="5">
-        <v>300</v>
-      </c>
-      <c r="I111" s="5">
-        <v>500</v>
-      </c>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
-      <c r="L111" s="5"/>
-      <c r="M111" s="5"/>
-      <c r="N111" s="5"/>
-      <c r="O111" s="5"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A112" s="1"/>
-      <c r="B112" s="5">
-        <v>1110815</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D112" s="5">
-        <v>108</v>
-      </c>
-      <c r="E112" s="5">
-        <v>1</v>
-      </c>
-      <c r="F112" s="5">
-        <v>1120815</v>
-      </c>
-      <c r="G112" s="5">
-        <v>1</v>
-      </c>
-      <c r="H112" s="5">
-        <v>300</v>
-      </c>
-      <c r="I112" s="5">
-        <v>500</v>
-      </c>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
-      <c r="L112" s="5"/>
-      <c r="M112" s="5"/>
-      <c r="N112" s="5"/>
-      <c r="O112" s="5"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A113" s="1"/>
-      <c r="B113" s="5">
-        <v>1110901</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D113" s="5">
-        <v>109</v>
-      </c>
-      <c r="E113" s="5">
-        <v>1</v>
-      </c>
-      <c r="F113" s="5">
-        <v>1120901</v>
-      </c>
-      <c r="G113" s="5">
-        <v>1</v>
-      </c>
-      <c r="H113" s="5">
-        <v>300</v>
-      </c>
-      <c r="I113" s="5">
-        <v>500</v>
-      </c>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
-      <c r="L113" s="5"/>
-      <c r="M113" s="5"/>
-      <c r="N113" s="5"/>
-      <c r="O113" s="5"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A114" s="1"/>
-      <c r="B114" s="5">
-        <v>1110902</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D114" s="5">
-        <v>109</v>
-      </c>
-      <c r="E114" s="5">
-        <v>1</v>
-      </c>
-      <c r="F114" s="5">
-        <v>1120902</v>
-      </c>
-      <c r="G114" s="5">
-        <v>1</v>
-      </c>
-      <c r="H114" s="5">
-        <v>300</v>
-      </c>
-      <c r="I114" s="5">
-        <v>500</v>
-      </c>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
-      <c r="M114" s="5"/>
-      <c r="N114" s="5"/>
-      <c r="O114" s="5"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A115" s="1"/>
-      <c r="B115" s="5">
-        <v>1110903</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D115" s="5">
-        <v>109</v>
-      </c>
-      <c r="E115" s="5">
-        <v>1</v>
-      </c>
-      <c r="F115" s="5">
-        <v>1120903</v>
-      </c>
-      <c r="G115" s="5">
-        <v>1</v>
-      </c>
-      <c r="H115" s="5">
-        <v>300</v>
-      </c>
-      <c r="I115" s="5">
-        <v>500</v>
-      </c>
-      <c r="J115" s="5"/>
-      <c r="K115" s="5"/>
-      <c r="L115" s="5"/>
-      <c r="M115" s="5"/>
-      <c r="N115" s="5"/>
-      <c r="O115" s="5"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A116" s="1"/>
-      <c r="B116" s="5">
-        <v>1110904</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D116" s="5">
-        <v>109</v>
-      </c>
-      <c r="E116" s="5">
-        <v>1</v>
-      </c>
-      <c r="F116" s="5">
-        <v>1120904</v>
-      </c>
-      <c r="G116" s="5">
-        <v>1</v>
-      </c>
-      <c r="H116" s="5">
-        <v>300</v>
-      </c>
-      <c r="I116" s="5">
-        <v>500</v>
-      </c>
-      <c r="J116" s="5"/>
-      <c r="K116" s="5"/>
-      <c r="L116" s="5"/>
-      <c r="M116" s="5"/>
-      <c r="N116" s="5"/>
-      <c r="O116" s="5"/>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A117" s="1"/>
-      <c r="B117" s="5">
-        <v>1110905</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D117" s="5">
-        <v>109</v>
-      </c>
-      <c r="E117" s="5">
-        <v>1</v>
-      </c>
-      <c r="F117" s="5">
-        <v>1120905</v>
-      </c>
-      <c r="G117" s="5">
-        <v>1</v>
-      </c>
-      <c r="H117" s="5">
-        <v>300</v>
-      </c>
-      <c r="I117" s="5">
-        <v>500</v>
-      </c>
-      <c r="J117" s="5"/>
-      <c r="K117" s="5"/>
-      <c r="L117" s="5"/>
-      <c r="M117" s="5"/>
-      <c r="N117" s="5"/>
-      <c r="O117" s="5"/>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A118" s="1"/>
-      <c r="B118" s="5">
-        <v>1110906</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D118" s="5">
-        <v>109</v>
-      </c>
-      <c r="E118" s="5">
-        <v>1</v>
-      </c>
-      <c r="F118" s="5">
-        <v>1120906</v>
-      </c>
-      <c r="G118" s="5">
-        <v>1</v>
-      </c>
-      <c r="H118" s="5">
-        <v>300</v>
-      </c>
-      <c r="I118" s="5">
-        <v>500</v>
-      </c>
-      <c r="J118" s="5"/>
-      <c r="K118" s="5"/>
-      <c r="L118" s="5"/>
-      <c r="M118" s="5"/>
-      <c r="N118" s="5"/>
-      <c r="O118" s="5"/>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A119" s="1"/>
-      <c r="B119" s="5">
-        <v>1110907</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D119" s="5">
-        <v>109</v>
-      </c>
-      <c r="E119" s="5">
-        <v>1</v>
-      </c>
-      <c r="F119" s="5">
-        <v>1120907</v>
-      </c>
-      <c r="G119" s="5">
-        <v>1</v>
-      </c>
-      <c r="H119" s="5">
-        <v>300</v>
-      </c>
-      <c r="I119" s="5">
-        <v>500</v>
-      </c>
-      <c r="J119" s="5"/>
-      <c r="K119" s="5"/>
-      <c r="L119" s="5"/>
-      <c r="M119" s="5"/>
-      <c r="N119" s="5"/>
-      <c r="O119" s="5"/>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A120" s="1"/>
-      <c r="B120" s="5">
-        <v>1110908</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D120" s="5">
-        <v>109</v>
-      </c>
-      <c r="E120" s="5">
-        <v>1</v>
-      </c>
-      <c r="F120" s="5">
-        <v>1120908</v>
-      </c>
-      <c r="G120" s="5">
-        <v>1</v>
-      </c>
-      <c r="H120" s="5">
-        <v>300</v>
-      </c>
-      <c r="I120" s="5">
-        <v>500</v>
-      </c>
-      <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
-      <c r="L120" s="5"/>
-      <c r="M120" s="5"/>
-      <c r="N120" s="5"/>
-      <c r="O120" s="5"/>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A121" s="1"/>
-      <c r="B121" s="5">
-        <v>1110909</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D121" s="5">
-        <v>109</v>
-      </c>
-      <c r="E121" s="5">
-        <v>1</v>
-      </c>
-      <c r="F121" s="5">
-        <v>1120909</v>
-      </c>
-      <c r="G121" s="5">
-        <v>1</v>
-      </c>
-      <c r="H121" s="5">
-        <v>300</v>
-      </c>
-      <c r="I121" s="5">
-        <v>500</v>
-      </c>
-      <c r="J121" s="5"/>
-      <c r="K121" s="5"/>
-      <c r="L121" s="5"/>
-      <c r="M121" s="5"/>
-      <c r="N121" s="5"/>
-      <c r="O121" s="5"/>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A122" s="1"/>
-      <c r="B122" s="5">
-        <v>1110910</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D122" s="5">
-        <v>109</v>
-      </c>
-      <c r="E122" s="5">
-        <v>1</v>
-      </c>
-      <c r="F122" s="5">
-        <v>1120910</v>
-      </c>
-      <c r="G122" s="5">
-        <v>1</v>
-      </c>
-      <c r="H122" s="5">
-        <v>300</v>
-      </c>
-      <c r="I122" s="5">
-        <v>500</v>
-      </c>
-      <c r="J122" s="5"/>
-      <c r="K122" s="5"/>
-      <c r="L122" s="5"/>
-      <c r="M122" s="5"/>
-      <c r="N122" s="5"/>
-      <c r="O122" s="5"/>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A123" s="1"/>
-      <c r="B123" s="5">
-        <v>1110911</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D123" s="5">
-        <v>109</v>
-      </c>
-      <c r="E123" s="5">
-        <v>1</v>
-      </c>
-      <c r="F123" s="5">
-        <v>1120911</v>
-      </c>
-      <c r="G123" s="5">
-        <v>1</v>
-      </c>
-      <c r="H123" s="5">
-        <v>300</v>
-      </c>
-      <c r="I123" s="5">
-        <v>500</v>
-      </c>
-      <c r="J123" s="5"/>
-      <c r="K123" s="5"/>
-      <c r="L123" s="5"/>
-      <c r="M123" s="5"/>
-      <c r="N123" s="5"/>
-      <c r="O123" s="5"/>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A124" s="1"/>
-      <c r="B124" s="5">
-        <v>1110912</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D124" s="5">
-        <v>109</v>
-      </c>
-      <c r="E124" s="5">
-        <v>1</v>
-      </c>
-      <c r="F124" s="5">
-        <v>1120912</v>
-      </c>
-      <c r="G124" s="5">
-        <v>1</v>
-      </c>
-      <c r="H124" s="5">
-        <v>300</v>
-      </c>
-      <c r="I124" s="5">
-        <v>500</v>
-      </c>
-      <c r="J124" s="5"/>
-      <c r="K124" s="5"/>
-      <c r="L124" s="5"/>
-      <c r="M124" s="5"/>
-      <c r="N124" s="5"/>
-      <c r="O124" s="5"/>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A125" s="1"/>
-      <c r="B125" s="5">
-        <v>1110913</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D125" s="5">
-        <v>109</v>
-      </c>
-      <c r="E125" s="5">
-        <v>1</v>
-      </c>
-      <c r="F125" s="5">
-        <v>1120913</v>
-      </c>
-      <c r="G125" s="5">
-        <v>1</v>
-      </c>
-      <c r="H125" s="5">
-        <v>300</v>
-      </c>
-      <c r="I125" s="5">
-        <v>500</v>
-      </c>
-      <c r="J125" s="5"/>
-      <c r="K125" s="5"/>
-      <c r="L125" s="5"/>
-      <c r="M125" s="5"/>
-      <c r="N125" s="5"/>
-      <c r="O125" s="5"/>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A126" s="1"/>
-      <c r="B126" s="5">
-        <v>1110914</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D126" s="5">
-        <v>109</v>
-      </c>
-      <c r="E126" s="5">
-        <v>1</v>
-      </c>
-      <c r="F126" s="5">
-        <v>1120914</v>
-      </c>
-      <c r="G126" s="5">
-        <v>1</v>
-      </c>
-      <c r="H126" s="5">
-        <v>300</v>
-      </c>
-      <c r="I126" s="5">
-        <v>500</v>
-      </c>
-      <c r="J126" s="5"/>
-      <c r="K126" s="5"/>
-      <c r="L126" s="5"/>
-      <c r="M126" s="5"/>
-      <c r="N126" s="5"/>
-      <c r="O126" s="5"/>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A127" s="1"/>
-      <c r="B127" s="5">
-        <v>1110915</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D127" s="5">
-        <v>109</v>
-      </c>
-      <c r="E127" s="5">
-        <v>1</v>
-      </c>
-      <c r="F127" s="5">
-        <v>1120915</v>
-      </c>
-      <c r="G127" s="5">
-        <v>1</v>
-      </c>
-      <c r="H127" s="5">
-        <v>300</v>
-      </c>
-      <c r="I127" s="5">
-        <v>500</v>
-      </c>
-      <c r="J127" s="5"/>
-      <c r="K127" s="5"/>
-      <c r="L127" s="5"/>
-      <c r="M127" s="5"/>
-      <c r="N127" s="5"/>
-      <c r="O127" s="5"/>
+      <c r="O87" s="5" t="s">
+        <v>229</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -5788,28 +4945,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -5884,28 +5041,28 @@
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">

--- a/Excel/镇魂街/章节关卡/派遣巡逻.xlsx
+++ b/Excel/镇魂街/章节关卡/派遣巡逻.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24345" windowHeight="13500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24345" windowHeight="13500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="hang_up_chapter" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="232">
   <si>
     <t>标识</t>
   </si>
@@ -720,6 +720,12 @@
   </si>
   <si>
     <t>1603006#5#16|1603016#1#16|1603017#1#16</t>
+  </si>
+  <si>
+    <t>1401002#100#14</t>
+  </si>
+  <si>
+    <t>1401002#200#14</t>
   </si>
 </sst>
 </file>
@@ -1349,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N76" sqref="N76"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1678,7 +1684,9 @@
         <v>144</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="O8" s="7" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
@@ -1717,7 +1725,9 @@
         <v>145</v>
       </c>
       <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="O9" s="7" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
@@ -1756,7 +1766,9 @@
         <v>146</v>
       </c>
       <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="O10" s="7" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
@@ -1795,7 +1807,9 @@
         <v>147</v>
       </c>
       <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="O11" s="7" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
@@ -4924,8 +4938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5143,7 +5157,7 @@
         <v>120</v>
       </c>
       <c r="I8" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J8" s="5">
         <v>1</v>
